--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_150__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_150__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>50.37245941162109</c:v>
@@ -5432,100 +5432,100 @@
                   <c:v>27.09918022155762</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>38.01251220703125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>50.03810119628906</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48.37945556640625</c:v>
+                  <c:v>48.37945175170898</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45.49729537963867</c:v>
+                  <c:v>45.49729156494141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50.98939895629883</c:v>
+                  <c:v>50.98940277099609</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>46.8527717590332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.99921035766602</c:v>
+                  <c:v>48.99920654296875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>49.93415451049805</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>21.87668800354004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>52.94150924682617</c:v>
+                  <c:v>52.94151306152344</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>38.52817153930664</c:v>
@@ -5534,106 +5534,106 @@
                   <c:v>45.57825469970703</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>46.99847412109375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>35.63991165161133</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50.35549163818359</c:v>
+                  <c:v>50.35548782348633</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>26.04881858825684</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>47.58811569213867</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>51.70856857299805</c:v>
@@ -5642,49 +5642,49 @@
                   <c:v>48.09215545654297</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.3197340965271</c:v>
+                  <c:v>3.319732189178467</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8698764443397522</c:v>
+                  <c:v>0.8698773384094238</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>42.36370849609375</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5368832349777222</c:v>
+                  <c:v>0.5368813872337341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>48.8989</v>
       </c>
       <c r="F16">
-        <v>48.37945556640625</v>
+        <v>48.37945175170898</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>45.49729537963867</v>
+        <v>45.49729156494141</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>44.1708</v>
       </c>
       <c r="F19">
-        <v>50.98939895629883</v>
+        <v>50.98940277099609</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>48.99921035766602</v>
+        <v>48.99920654296875</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>48.8804</v>
       </c>
       <c r="F37">
-        <v>52.94150924682617</v>
+        <v>52.94151306152344</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>50.35549163818359</v>
+        <v>50.35548782348633</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>3.3197340965271</v>
+        <v>3.319732189178467</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.8698764443397522</v>
+        <v>0.8698773384094238</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.5368832349777222</v>
+        <v>0.5368813872337341</v>
       </c>
     </row>
     <row r="92" spans="1:6">
